--- a/data/yannis/output/processed_e.xlsx
+++ b/data/yannis/output/processed_e.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -552,7 +552,7 @@
         <v>5.05</v>
       </c>
       <c r="G2" t="n">
-        <v>1.59</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
         <v>-73.09</v>
@@ -570,7 +570,7 @@
         <v>3.04</v>
       </c>
       <c r="M2" t="n">
-        <v>0.96</v>
+        <v>0.63</v>
       </c>
       <c r="N2" t="n">
         <v>-23.74</v>
@@ -588,7 +588,7 @@
         <v>5.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -613,7 +613,7 @@
         <v>5.05</v>
       </c>
       <c r="G3" t="n">
-        <v>1.59</v>
+        <v>1.02</v>
       </c>
       <c r="H3" t="n">
         <v>-73.09</v>
@@ -631,7 +631,7 @@
         <v>3.04</v>
       </c>
       <c r="M3" t="n">
-        <v>0.96</v>
+        <v>0.63</v>
       </c>
       <c r="N3" t="n">
         <v>-23.74</v>
@@ -649,7 +649,7 @@
         <v>5.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -674,7 +674,7 @@
         <v>4.83</v>
       </c>
       <c r="G4" t="n">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="H4" t="n">
         <v>-92.5</v>
@@ -692,7 +692,7 @@
         <v>3.23</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="N4" t="n">
         <v>-30.97</v>
@@ -710,7 +710,7 @@
         <v>4.83</v>
       </c>
       <c r="S4" t="n">
-        <v>0.99</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
@@ -735,7 +735,7 @@
         <v>4.83</v>
       </c>
       <c r="G5" t="n">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="H5" t="n">
         <v>-93.90000000000001</v>
@@ -753,7 +753,7 @@
         <v>3.24</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="N5" t="n">
         <v>-31.02</v>
@@ -771,7 +771,7 @@
         <v>4.83</v>
       </c>
       <c r="S5" t="n">
-        <v>0.99</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
@@ -796,7 +796,7 @@
         <v>4.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="H6" t="n">
         <v>-93.70999999999999</v>
@@ -814,7 +814,7 @@
         <v>3.24</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="N6" t="n">
         <v>-30.8</v>
@@ -832,7 +832,7 @@
         <v>4.84</v>
       </c>
       <c r="S6" t="n">
-        <v>0.97</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
@@ -857,7 +857,7 @@
         <v>4.84</v>
       </c>
       <c r="G7" t="n">
-        <v>1.07</v>
+        <v>0.66</v>
       </c>
       <c r="H7" t="n">
         <v>-93.26000000000001</v>
@@ -875,7 +875,7 @@
         <v>3.23</v>
       </c>
       <c r="M7" t="n">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="N7" t="n">
         <v>-30.64</v>
@@ -893,7 +893,7 @@
         <v>4.84</v>
       </c>
       <c r="S7" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -918,7 +918,7 @@
         <v>4.84</v>
       </c>
       <c r="G8" t="n">
-        <v>1.07</v>
+        <v>0.66</v>
       </c>
       <c r="H8" t="n">
         <v>-93.26000000000001</v>
@@ -936,7 +936,7 @@
         <v>3.23</v>
       </c>
       <c r="M8" t="n">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="N8" t="n">
         <v>-30.64</v>
@@ -954,7 +954,7 @@
         <v>4.84</v>
       </c>
       <c r="S8" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
@@ -979,7 +979,7 @@
         <v>4.84</v>
       </c>
       <c r="G9" t="n">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="H9" t="n">
         <v>-93.70999999999999</v>
@@ -997,7 +997,7 @@
         <v>3.24</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="N9" t="n">
         <v>-30.8</v>
@@ -1015,7 +1015,7 @@
         <v>4.84</v>
       </c>
       <c r="S9" t="n">
-        <v>0.97</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +1040,7 @@
         <v>4.83</v>
       </c>
       <c r="G10" t="n">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="H10" t="n">
         <v>-93.90000000000001</v>
@@ -1058,7 +1058,7 @@
         <v>3.24</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="N10" t="n">
         <v>-31.02</v>
@@ -1076,7 +1076,7 @@
         <v>4.83</v>
       </c>
       <c r="S10" t="n">
-        <v>0.99</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11">
@@ -1101,7 +1101,7 @@
         <v>4.83</v>
       </c>
       <c r="G11" t="n">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="H11" t="n">
         <v>-92.5</v>
@@ -1119,7 +1119,7 @@
         <v>3.23</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="N11" t="n">
         <v>-30.97</v>
@@ -1137,7 +1137,7 @@
         <v>4.83</v>
       </c>
       <c r="S11" t="n">
-        <v>0.99</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>

--- a/data/yannis/output/processed_e.xlsx
+++ b/data/yannis/output/processed_e.xlsx
@@ -1,37 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da260913b9116b48/Desktop/Yannis/Studium/4.Semester/ASE2/ASE project/tum-ase-project-2025/data/yannis/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_2B59D2BFD330D94477B8261159C280B65EE5EEE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D9CFB8-BE04-4344-8559-634687CE7352}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Component Name</t>
+  </si>
+  <si>
+    <t>sigmaXXLC1</t>
+  </si>
+  <si>
+    <t>sigmaYYLC1</t>
+  </si>
+  <si>
+    <t>sigmaXYLC1</t>
+  </si>
+  <si>
+    <t>k_shearLC1</t>
+  </si>
+  <si>
+    <t>k_biaxialLC1</t>
+  </si>
+  <si>
+    <t>LC 1 RF</t>
+  </si>
+  <si>
+    <t>sigmaXXLC2</t>
+  </si>
+  <si>
+    <t>sigmaYYLC2</t>
+  </si>
+  <si>
+    <t>sigmaXYLC2</t>
+  </si>
+  <si>
+    <t>k_shearLC2</t>
+  </si>
+  <si>
+    <t>k_biaxialLC2</t>
+  </si>
+  <si>
+    <t>LC 2 RF</t>
+  </si>
+  <si>
+    <t>sigmaXXLC3</t>
+  </si>
+  <si>
+    <t>sigmaYYLC3</t>
+  </si>
+  <si>
+    <t>sigmaXYLC3</t>
+  </si>
+  <si>
+    <t>k_shearLC3</t>
+  </si>
+  <si>
+    <t>k_biaxialLC3</t>
+  </si>
+  <si>
+    <t>LC 3 RF</t>
+  </si>
+  <si>
+    <t>panel1</t>
+  </si>
+  <si>
+    <t>panel10</t>
+  </si>
+  <si>
+    <t>panel2</t>
+  </si>
+  <si>
+    <t>panel3</t>
+  </si>
+  <si>
+    <t>panel4</t>
+  </si>
+  <si>
+    <t>panel5</t>
+  </si>
+  <si>
+    <t>panel6</t>
+  </si>
+  <si>
+    <t>panel7</t>
+  </si>
+  <si>
+    <t>panel8</t>
+  </si>
+  <si>
+    <t>panel9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +144,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,723 +468,679 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Component Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sigmaXXLC1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>sigmaYYLC1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sigmaXYLC1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>k_shearLC1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>k_biaxialLC1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>LC 1 RF</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sigmaXXLC2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sigmaYYLC2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigmaXYLC2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>k_shearLC2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>k_biaxialLC2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>LC 2 RF</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>sigmaXXLC3</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>sigmaYYLC3</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>sigmaXYLC3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>k_shearLC3</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>k_biaxialLC3</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>LC 3 RF</t>
-        </is>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>panel1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-71.45999999999999</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>-71.459999999999994</v>
+      </c>
+      <c r="C2">
         <v>17.88</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>29.71</v>
       </c>
-      <c r="E2" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>5.62</v>
+      </c>
+      <c r="F2">
         <v>5.05</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1.59</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-73.09</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>-17.88</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>29.71</v>
       </c>
-      <c r="K2" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>5.62</v>
+      </c>
+      <c r="L2">
         <v>3.04</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>0.96</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>-23.74</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>5.94</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>118.42</v>
       </c>
-      <c r="Q2" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2">
+        <v>5.62</v>
+      </c>
+      <c r="R2">
         <v>5.05</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>1.06</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>panel10</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-71.45999999999999</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>-71.459999999999994</v>
+      </c>
+      <c r="C3">
         <v>17.88</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>29.71</v>
       </c>
-      <c r="E3" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>5.62</v>
+      </c>
+      <c r="F3">
         <v>5.05</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.59</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-73.09</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-17.88</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>29.71</v>
       </c>
-      <c r="K3" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3">
+        <v>5.62</v>
+      </c>
+      <c r="L3">
         <v>3.04</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>0.96</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>-23.74</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>5.94</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>118.42</v>
       </c>
-      <c r="Q3" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3">
+        <v>5.62</v>
+      </c>
+      <c r="R3">
         <v>5.05</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>1.06</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>panel2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-93.23999999999999</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>-93.24</v>
+      </c>
+      <c r="C4">
         <v>17.88</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>29.61</v>
       </c>
-      <c r="E4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>5.62</v>
+      </c>
+      <c r="F4">
         <v>4.83</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.19</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-92.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>-17.88</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>29.61</v>
       </c>
-      <c r="K4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4">
+        <v>5.62</v>
+      </c>
+      <c r="L4">
         <v>3.23</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4">
+        <v>0.81</v>
+      </c>
+      <c r="N4">
         <v>-30.97</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>5.94</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>118.04</v>
       </c>
-      <c r="Q4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4">
+        <v>5.62</v>
+      </c>
+      <c r="R4">
         <v>4.83</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>0.99</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>panel3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
         <v>-93.37</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>17.88</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>29.61</v>
       </c>
-      <c r="E5" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>5.62</v>
+      </c>
+      <c r="F5">
         <v>4.83</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.19</v>
       </c>
-      <c r="H5" t="n">
-        <v>-93.90000000000001</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>-93.9</v>
+      </c>
+      <c r="I5">
         <v>-17.88</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>29.61</v>
       </c>
-      <c r="K5" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5">
+        <v>5.62</v>
+      </c>
+      <c r="L5">
         <v>3.24</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5">
+        <v>0.81</v>
+      </c>
+      <c r="N5">
         <v>-31.02</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>5.94</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>118.05</v>
       </c>
-      <c r="Q5" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5">
+        <v>5.62</v>
+      </c>
+      <c r="R5">
         <v>4.83</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>0.99</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>panel4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
         <v>-92.72</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>17.88</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>30.07</v>
       </c>
-      <c r="E6" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>5.62</v>
+      </c>
+      <c r="F6">
         <v>4.84</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.19</v>
       </c>
-      <c r="H6" t="n">
-        <v>-93.70999999999999</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>-93.71</v>
+      </c>
+      <c r="I6">
         <v>-17.88</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>30.07</v>
       </c>
-      <c r="K6" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="K6">
+        <v>5.62</v>
+      </c>
+      <c r="L6">
         <v>3.24</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6">
+        <v>0.81</v>
+      </c>
+      <c r="N6">
         <v>-30.8</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>5.94</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>119.85</v>
       </c>
-      <c r="Q6" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6">
+        <v>5.62</v>
+      </c>
+      <c r="R6">
         <v>4.84</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>0.97</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>panel5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
         <v>-92.22</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>17.88</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>52.55</v>
       </c>
-      <c r="E7" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>5.62</v>
+      </c>
+      <c r="F7">
         <v>4.84</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1.07</v>
       </c>
-      <c r="H7" t="n">
-        <v>-93.26000000000001</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7">
+        <v>-93.26</v>
+      </c>
+      <c r="I7">
         <v>-17.88</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>52.55</v>
       </c>
-      <c r="K7" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="K7">
+        <v>5.62</v>
+      </c>
+      <c r="L7">
         <v>3.23</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>0.75</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>-30.64</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>5.94</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>209.48</v>
       </c>
-      <c r="Q7" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7">
+        <v>5.62</v>
+      </c>
+      <c r="R7">
         <v>4.84</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>0.38</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>panel6</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
         <v>-92.22</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>17.88</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>52.55</v>
       </c>
-      <c r="E8" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>5.62</v>
+      </c>
+      <c r="F8">
         <v>4.84</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.07</v>
       </c>
-      <c r="H8" t="n">
-        <v>-93.26000000000001</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>-93.26</v>
+      </c>
+      <c r="I8">
         <v>-17.88</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>52.55</v>
       </c>
-      <c r="K8" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K8">
+        <v>5.62</v>
+      </c>
+      <c r="L8">
         <v>3.23</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>0.75</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>-30.64</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>5.94</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>209.48</v>
       </c>
-      <c r="Q8" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8">
+        <v>5.62</v>
+      </c>
+      <c r="R8">
         <v>4.84</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>0.38</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>panel7</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
         <v>-92.72</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>17.88</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>30.07</v>
       </c>
-      <c r="E9" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>5.62</v>
+      </c>
+      <c r="F9">
         <v>4.84</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1.19</v>
       </c>
-      <c r="H9" t="n">
-        <v>-93.70999999999999</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9">
+        <v>-93.71</v>
+      </c>
+      <c r="I9">
         <v>-17.88</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>30.07</v>
       </c>
-      <c r="K9" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K9">
+        <v>5.62</v>
+      </c>
+      <c r="L9">
         <v>3.24</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9">
+        <v>0.81</v>
+      </c>
+      <c r="N9">
         <v>-30.8</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>5.94</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>119.85</v>
       </c>
-      <c r="Q9" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9">
+        <v>5.62</v>
+      </c>
+      <c r="R9">
         <v>4.84</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>0.97</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>panel8</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
         <v>-93.37</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>17.88</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>29.61</v>
       </c>
-      <c r="E10" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10">
+        <v>5.62</v>
+      </c>
+      <c r="F10">
         <v>4.83</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.19</v>
       </c>
-      <c r="H10" t="n">
-        <v>-93.90000000000001</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>-93.9</v>
+      </c>
+      <c r="I10">
         <v>-17.88</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>29.61</v>
       </c>
-      <c r="K10" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10">
+        <v>5.62</v>
+      </c>
+      <c r="L10">
         <v>3.24</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10">
+        <v>0.81</v>
+      </c>
+      <c r="N10">
         <v>-31.02</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>5.94</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>118.05</v>
       </c>
-      <c r="Q10" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10">
+        <v>5.62</v>
+      </c>
+      <c r="R10">
         <v>4.83</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>0.99</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>panel9</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-93.23999999999999</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>-93.24</v>
+      </c>
+      <c r="C11">
         <v>17.88</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>29.61</v>
       </c>
-      <c r="E11" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>5.62</v>
+      </c>
+      <c r="F11">
         <v>4.83</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.19</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-92.5</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>-17.88</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>29.61</v>
       </c>
-      <c r="K11" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="K11">
+        <v>5.62</v>
+      </c>
+      <c r="L11">
         <v>3.23</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11">
+        <v>0.81</v>
+      </c>
+      <c r="N11">
         <v>-30.97</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>5.94</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>118.04</v>
       </c>
-      <c r="Q11" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q11">
+        <v>5.62</v>
+      </c>
+      <c r="R11">
         <v>4.83</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>0.99</v>
       </c>
     </row>

--- a/data/yannis/output/processed_e.xlsx
+++ b/data/yannis/output/processed_e.xlsx
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-93.23999999999999</v>
+        <v>-93.23</v>
       </c>
       <c r="C4" t="n">
         <v>17.88</v>
@@ -787,7 +787,7 @@
         <v>17.88</v>
       </c>
       <c r="D6" t="n">
-        <v>30.07</v>
+        <v>30.06</v>
       </c>
       <c r="E6" t="n">
         <v>5.62</v>
@@ -805,7 +805,7 @@
         <v>-17.88</v>
       </c>
       <c r="J6" t="n">
-        <v>30.07</v>
+        <v>30.06</v>
       </c>
       <c r="K6" t="n">
         <v>5.62</v>
@@ -970,7 +970,7 @@
         <v>17.88</v>
       </c>
       <c r="D9" t="n">
-        <v>30.07</v>
+        <v>30.06</v>
       </c>
       <c r="E9" t="n">
         <v>5.62</v>
@@ -988,7 +988,7 @@
         <v>-17.88</v>
       </c>
       <c r="J9" t="n">
-        <v>30.07</v>
+        <v>30.06</v>
       </c>
       <c r="K9" t="n">
         <v>5.62</v>
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-93.23999999999999</v>
+        <v>-93.23</v>
       </c>
       <c r="C11" t="n">
         <v>17.88</v>

--- a/data/yannis/output/processed_e.xlsx
+++ b/data/yannis/output/processed_e.xlsx
@@ -543,16 +543,16 @@
         <v>17.88</v>
       </c>
       <c r="D2" t="n">
-        <v>29.71</v>
+        <v>29.705</v>
       </c>
       <c r="E2" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F2" t="n">
-        <v>5.05</v>
+        <v>5.051</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02</v>
+        <v>1.019</v>
       </c>
       <c r="H2" t="n">
         <v>-73.09</v>
@@ -561,16 +561,16 @@
         <v>-17.88</v>
       </c>
       <c r="J2" t="n">
-        <v>29.71</v>
+        <v>29.705</v>
       </c>
       <c r="K2" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L2" t="n">
         <v>3.04</v>
       </c>
       <c r="M2" t="n">
-        <v>0.63</v>
+        <v>0.628</v>
       </c>
       <c r="N2" t="n">
         <v>-23.74</v>
@@ -579,16 +579,16 @@
         <v>5.94</v>
       </c>
       <c r="P2" t="n">
-        <v>118.42</v>
+        <v>118.423</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R2" t="n">
-        <v>5.05</v>
+        <v>5.051</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="3">
@@ -604,16 +604,16 @@
         <v>17.88</v>
       </c>
       <c r="D3" t="n">
-        <v>29.71</v>
+        <v>29.705</v>
       </c>
       <c r="E3" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F3" t="n">
-        <v>5.05</v>
+        <v>5.051</v>
       </c>
       <c r="G3" t="n">
-        <v>1.02</v>
+        <v>1.019</v>
       </c>
       <c r="H3" t="n">
         <v>-73.09</v>
@@ -622,16 +622,16 @@
         <v>-17.88</v>
       </c>
       <c r="J3" t="n">
-        <v>29.71</v>
+        <v>29.705</v>
       </c>
       <c r="K3" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L3" t="n">
         <v>3.04</v>
       </c>
       <c r="M3" t="n">
-        <v>0.63</v>
+        <v>0.628</v>
       </c>
       <c r="N3" t="n">
         <v>-23.74</v>
@@ -640,16 +640,16 @@
         <v>5.94</v>
       </c>
       <c r="P3" t="n">
-        <v>118.42</v>
+        <v>118.423</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R3" t="n">
-        <v>5.05</v>
+        <v>5.051</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="4">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-93.23</v>
+        <v>-93.235</v>
       </c>
       <c r="C4" t="n">
         <v>17.88</v>
@@ -668,10 +668,10 @@
         <v>29.61</v>
       </c>
       <c r="E4" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="G4" t="n">
         <v>0.77</v>
@@ -686,31 +686,31 @@
         <v>29.61</v>
       </c>
       <c r="K4" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L4" t="n">
-        <v>3.23</v>
+        <v>3.228</v>
       </c>
       <c r="M4" t="n">
-        <v>0.53</v>
+        <v>0.533</v>
       </c>
       <c r="N4" t="n">
-        <v>-30.97</v>
+        <v>-30.974</v>
       </c>
       <c r="O4" t="n">
         <v>5.94</v>
       </c>
       <c r="P4" t="n">
-        <v>118.04</v>
+        <v>118.044</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="S4" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="5">
@@ -720,58 +720,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-93.37</v>
+        <v>-93.371</v>
       </c>
       <c r="C5" t="n">
         <v>17.88</v>
       </c>
       <c r="D5" t="n">
-        <v>29.61</v>
+        <v>29.612</v>
       </c>
       <c r="E5" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F5" t="n">
         <v>4.83</v>
       </c>
       <c r="G5" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="H5" t="n">
-        <v>-93.90000000000001</v>
+        <v>-93.89700000000001</v>
       </c>
       <c r="I5" t="n">
         <v>-17.88</v>
       </c>
       <c r="J5" t="n">
-        <v>29.61</v>
+        <v>29.612</v>
       </c>
       <c r="K5" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L5" t="n">
-        <v>3.24</v>
+        <v>3.239</v>
       </c>
       <c r="M5" t="n">
-        <v>0.53</v>
+        <v>0.527</v>
       </c>
       <c r="N5" t="n">
-        <v>-31.02</v>
+        <v>-31.019</v>
       </c>
       <c r="O5" t="n">
         <v>5.94</v>
       </c>
       <c r="P5" t="n">
-        <v>118.05</v>
+        <v>118.049</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R5" t="n">
         <v>4.83</v>
       </c>
       <c r="S5" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="6">
@@ -781,55 +781,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92.72</v>
+        <v>-92.718</v>
       </c>
       <c r="C6" t="n">
         <v>17.88</v>
       </c>
       <c r="D6" t="n">
-        <v>30.06</v>
+        <v>30.064</v>
       </c>
       <c r="E6" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F6" t="n">
-        <v>4.84</v>
+        <v>4.836</v>
       </c>
       <c r="G6" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="H6" t="n">
-        <v>-93.70999999999999</v>
+        <v>-93.708</v>
       </c>
       <c r="I6" t="n">
         <v>-17.88</v>
       </c>
       <c r="J6" t="n">
-        <v>30.06</v>
+        <v>30.064</v>
       </c>
       <c r="K6" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L6" t="n">
-        <v>3.24</v>
+        <v>3.237</v>
       </c>
       <c r="M6" t="n">
-        <v>0.53</v>
+        <v>0.527</v>
       </c>
       <c r="N6" t="n">
-        <v>-30.8</v>
+        <v>-30.802</v>
       </c>
       <c r="O6" t="n">
         <v>5.94</v>
       </c>
       <c r="P6" t="n">
-        <v>119.85</v>
+        <v>119.854</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R6" t="n">
-        <v>4.84</v>
+        <v>4.836</v>
       </c>
       <c r="S6" t="n">
         <v>0.47</v>
@@ -842,58 +842,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-92.22</v>
+        <v>-92.224</v>
       </c>
       <c r="C7" t="n">
         <v>17.88</v>
       </c>
       <c r="D7" t="n">
-        <v>52.55</v>
+        <v>52.547</v>
       </c>
       <c r="E7" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F7" t="n">
-        <v>4.84</v>
+        <v>4.842</v>
       </c>
       <c r="G7" t="n">
-        <v>0.66</v>
+        <v>0.662</v>
       </c>
       <c r="H7" t="n">
-        <v>-93.26000000000001</v>
+        <v>-93.258</v>
       </c>
       <c r="I7" t="n">
         <v>-17.88</v>
       </c>
       <c r="J7" t="n">
-        <v>52.55</v>
+        <v>52.547</v>
       </c>
       <c r="K7" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L7" t="n">
-        <v>3.23</v>
+        <v>3.234</v>
       </c>
       <c r="M7" t="n">
-        <v>0.47</v>
+        <v>0.473</v>
       </c>
       <c r="N7" t="n">
-        <v>-30.64</v>
+        <v>-30.638</v>
       </c>
       <c r="O7" t="n">
         <v>5.94</v>
       </c>
       <c r="P7" t="n">
-        <v>209.48</v>
+        <v>209.481</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R7" t="n">
-        <v>4.84</v>
+        <v>4.842</v>
       </c>
       <c r="S7" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="8">
@@ -903,58 +903,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-92.22</v>
+        <v>-92.224</v>
       </c>
       <c r="C8" t="n">
         <v>17.88</v>
       </c>
       <c r="D8" t="n">
-        <v>52.55</v>
+        <v>52.547</v>
       </c>
       <c r="E8" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F8" t="n">
-        <v>4.84</v>
+        <v>4.842</v>
       </c>
       <c r="G8" t="n">
-        <v>0.66</v>
+        <v>0.662</v>
       </c>
       <c r="H8" t="n">
-        <v>-93.26000000000001</v>
+        <v>-93.258</v>
       </c>
       <c r="I8" t="n">
         <v>-17.88</v>
       </c>
       <c r="J8" t="n">
-        <v>52.55</v>
+        <v>52.547</v>
       </c>
       <c r="K8" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L8" t="n">
-        <v>3.23</v>
+        <v>3.234</v>
       </c>
       <c r="M8" t="n">
-        <v>0.47</v>
+        <v>0.473</v>
       </c>
       <c r="N8" t="n">
-        <v>-30.64</v>
+        <v>-30.638</v>
       </c>
       <c r="O8" t="n">
         <v>5.94</v>
       </c>
       <c r="P8" t="n">
-        <v>209.48</v>
+        <v>209.481</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R8" t="n">
-        <v>4.84</v>
+        <v>4.842</v>
       </c>
       <c r="S8" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="9">
@@ -964,55 +964,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-92.72</v>
+        <v>-92.718</v>
       </c>
       <c r="C9" t="n">
         <v>17.88</v>
       </c>
       <c r="D9" t="n">
-        <v>30.06</v>
+        <v>30.064</v>
       </c>
       <c r="E9" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F9" t="n">
-        <v>4.84</v>
+        <v>4.836</v>
       </c>
       <c r="G9" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="H9" t="n">
-        <v>-93.70999999999999</v>
+        <v>-93.708</v>
       </c>
       <c r="I9" t="n">
         <v>-17.88</v>
       </c>
       <c r="J9" t="n">
-        <v>30.06</v>
+        <v>30.064</v>
       </c>
       <c r="K9" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L9" t="n">
-        <v>3.24</v>
+        <v>3.237</v>
       </c>
       <c r="M9" t="n">
-        <v>0.53</v>
+        <v>0.527</v>
       </c>
       <c r="N9" t="n">
-        <v>-30.8</v>
+        <v>-30.802</v>
       </c>
       <c r="O9" t="n">
         <v>5.94</v>
       </c>
       <c r="P9" t="n">
-        <v>119.85</v>
+        <v>119.854</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R9" t="n">
-        <v>4.84</v>
+        <v>4.836</v>
       </c>
       <c r="S9" t="n">
         <v>0.47</v>
@@ -1025,58 +1025,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-93.37</v>
+        <v>-93.371</v>
       </c>
       <c r="C10" t="n">
         <v>17.88</v>
       </c>
       <c r="D10" t="n">
-        <v>29.61</v>
+        <v>29.612</v>
       </c>
       <c r="E10" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F10" t="n">
         <v>4.83</v>
       </c>
       <c r="G10" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="H10" t="n">
-        <v>-93.90000000000001</v>
+        <v>-93.89700000000001</v>
       </c>
       <c r="I10" t="n">
         <v>-17.88</v>
       </c>
       <c r="J10" t="n">
-        <v>29.61</v>
+        <v>29.612</v>
       </c>
       <c r="K10" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L10" t="n">
-        <v>3.24</v>
+        <v>3.239</v>
       </c>
       <c r="M10" t="n">
-        <v>0.53</v>
+        <v>0.527</v>
       </c>
       <c r="N10" t="n">
-        <v>-31.02</v>
+        <v>-31.019</v>
       </c>
       <c r="O10" t="n">
         <v>5.94</v>
       </c>
       <c r="P10" t="n">
-        <v>118.05</v>
+        <v>118.049</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R10" t="n">
         <v>4.83</v>
       </c>
       <c r="S10" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="11">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-93.23</v>
+        <v>-93.235</v>
       </c>
       <c r="C11" t="n">
         <v>17.88</v>
@@ -1095,10 +1095,10 @@
         <v>29.61</v>
       </c>
       <c r="E11" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="F11" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="G11" t="n">
         <v>0.77</v>
@@ -1113,31 +1113,31 @@
         <v>29.61</v>
       </c>
       <c r="K11" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="L11" t="n">
-        <v>3.23</v>
+        <v>3.228</v>
       </c>
       <c r="M11" t="n">
-        <v>0.53</v>
+        <v>0.533</v>
       </c>
       <c r="N11" t="n">
-        <v>-30.97</v>
+        <v>-30.974</v>
       </c>
       <c r="O11" t="n">
         <v>5.94</v>
       </c>
       <c r="P11" t="n">
-        <v>118.04</v>
+        <v>118.044</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="R11" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="S11" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
     </row>
   </sheetData>

--- a/data/yannis/output/processed_e.xlsx
+++ b/data/yannis/output/processed_e.xlsx
@@ -537,55 +537,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-71.45999999999999</v>
+        <v>-71.4603</v>
       </c>
       <c r="C2" t="n">
         <v>17.88</v>
       </c>
       <c r="D2" t="n">
-        <v>29.705</v>
+        <v>29.7054</v>
       </c>
       <c r="E2" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F2" t="n">
-        <v>5.051</v>
+        <v>5.0512</v>
       </c>
       <c r="G2" t="n">
-        <v>1.019</v>
+        <v>1.0194</v>
       </c>
       <c r="H2" t="n">
-        <v>-73.09</v>
+        <v>-73.0895</v>
       </c>
       <c r="I2" t="n">
         <v>-17.88</v>
       </c>
       <c r="J2" t="n">
-        <v>29.705</v>
+        <v>29.7054</v>
       </c>
       <c r="K2" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L2" t="n">
-        <v>3.04</v>
+        <v>3.0404</v>
       </c>
       <c r="M2" t="n">
         <v>0.628</v>
       </c>
       <c r="N2" t="n">
-        <v>-23.74</v>
+        <v>-23.7402</v>
       </c>
       <c r="O2" t="n">
         <v>5.94</v>
       </c>
       <c r="P2" t="n">
-        <v>118.423</v>
+        <v>118.4228</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R2" t="n">
-        <v>5.051</v>
+        <v>5.0512</v>
       </c>
       <c r="S2" t="n">
         <v>0.504</v>
@@ -598,55 +598,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-71.45999999999999</v>
+        <v>-71.4603</v>
       </c>
       <c r="C3" t="n">
         <v>17.88</v>
       </c>
       <c r="D3" t="n">
-        <v>29.705</v>
+        <v>29.7054</v>
       </c>
       <c r="E3" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F3" t="n">
-        <v>5.051</v>
+        <v>5.0512</v>
       </c>
       <c r="G3" t="n">
-        <v>1.019</v>
+        <v>1.0194</v>
       </c>
       <c r="H3" t="n">
-        <v>-73.09</v>
+        <v>-73.0895</v>
       </c>
       <c r="I3" t="n">
         <v>-17.88</v>
       </c>
       <c r="J3" t="n">
-        <v>29.705</v>
+        <v>29.7054</v>
       </c>
       <c r="K3" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L3" t="n">
-        <v>3.04</v>
+        <v>3.0404</v>
       </c>
       <c r="M3" t="n">
         <v>0.628</v>
       </c>
       <c r="N3" t="n">
-        <v>-23.74</v>
+        <v>-23.7402</v>
       </c>
       <c r="O3" t="n">
         <v>5.94</v>
       </c>
       <c r="P3" t="n">
-        <v>118.423</v>
+        <v>118.4228</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R3" t="n">
-        <v>5.051</v>
+        <v>5.0512</v>
       </c>
       <c r="S3" t="n">
         <v>0.504</v>
@@ -659,40 +659,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-93.235</v>
+        <v>-93.2347</v>
       </c>
       <c r="C4" t="n">
         <v>17.88</v>
       </c>
       <c r="D4" t="n">
-        <v>29.61</v>
+        <v>29.6104</v>
       </c>
       <c r="E4" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F4" t="n">
-        <v>4.831</v>
+        <v>4.8309</v>
       </c>
       <c r="G4" t="n">
         <v>0.77</v>
       </c>
       <c r="H4" t="n">
-        <v>-92.5</v>
+        <v>-92.5003</v>
       </c>
       <c r="I4" t="n">
         <v>-17.88</v>
       </c>
       <c r="J4" t="n">
-        <v>29.61</v>
+        <v>29.6104</v>
       </c>
       <c r="K4" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L4" t="n">
-        <v>3.228</v>
+        <v>3.2277</v>
       </c>
       <c r="M4" t="n">
-        <v>0.533</v>
+        <v>0.5327</v>
       </c>
       <c r="N4" t="n">
         <v>-30.974</v>
@@ -701,13 +701,13 @@
         <v>5.94</v>
       </c>
       <c r="P4" t="n">
-        <v>118.044</v>
+        <v>118.0441</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R4" t="n">
-        <v>4.831</v>
+        <v>4.8309</v>
       </c>
       <c r="S4" t="n">
         <v>0.481</v>
@@ -720,58 +720,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-93.371</v>
+        <v>-93.37090000000001</v>
       </c>
       <c r="C5" t="n">
         <v>17.88</v>
       </c>
       <c r="D5" t="n">
-        <v>29.612</v>
+        <v>29.6115</v>
       </c>
       <c r="E5" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F5" t="n">
-        <v>4.83</v>
+        <v>4.8295</v>
       </c>
       <c r="G5" t="n">
-        <v>0.769</v>
+        <v>0.7687</v>
       </c>
       <c r="H5" t="n">
-        <v>-93.89700000000001</v>
+        <v>-93.89660000000001</v>
       </c>
       <c r="I5" t="n">
         <v>-17.88</v>
       </c>
       <c r="J5" t="n">
-        <v>29.612</v>
+        <v>29.6115</v>
       </c>
       <c r="K5" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L5" t="n">
-        <v>3.239</v>
+        <v>3.2388</v>
       </c>
       <c r="M5" t="n">
-        <v>0.527</v>
+        <v>0.5269</v>
       </c>
       <c r="N5" t="n">
-        <v>-31.019</v>
+        <v>-31.0192</v>
       </c>
       <c r="O5" t="n">
         <v>5.94</v>
       </c>
       <c r="P5" t="n">
-        <v>118.049</v>
+        <v>118.0487</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R5" t="n">
-        <v>4.83</v>
+        <v>4.8295</v>
       </c>
       <c r="S5" t="n">
-        <v>0.481</v>
+        <v>0.4808</v>
       </c>
     </row>
     <row r="6">
@@ -781,58 +781,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92.718</v>
+        <v>-92.7182</v>
       </c>
       <c r="C6" t="n">
         <v>17.88</v>
       </c>
       <c r="D6" t="n">
-        <v>30.064</v>
+        <v>30.0643</v>
       </c>
       <c r="E6" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F6" t="n">
-        <v>4.836</v>
+        <v>4.8364</v>
       </c>
       <c r="G6" t="n">
-        <v>0.773</v>
+        <v>0.7728</v>
       </c>
       <c r="H6" t="n">
-        <v>-93.708</v>
+        <v>-93.7081</v>
       </c>
       <c r="I6" t="n">
         <v>-17.88</v>
       </c>
       <c r="J6" t="n">
-        <v>30.064</v>
+        <v>30.0643</v>
       </c>
       <c r="K6" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L6" t="n">
-        <v>3.237</v>
+        <v>3.2373</v>
       </c>
       <c r="M6" t="n">
-        <v>0.527</v>
+        <v>0.5268</v>
       </c>
       <c r="N6" t="n">
-        <v>-30.802</v>
+        <v>-30.8024</v>
       </c>
       <c r="O6" t="n">
         <v>5.94</v>
       </c>
       <c r="P6" t="n">
-        <v>119.854</v>
+        <v>119.8536</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R6" t="n">
-        <v>4.836</v>
+        <v>4.8364</v>
       </c>
       <c r="S6" t="n">
-        <v>0.47</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="7">
@@ -848,37 +848,37 @@
         <v>17.88</v>
       </c>
       <c r="D7" t="n">
-        <v>52.547</v>
+        <v>52.5466</v>
       </c>
       <c r="E7" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F7" t="n">
-        <v>4.842</v>
+        <v>4.8417</v>
       </c>
       <c r="G7" t="n">
-        <v>0.662</v>
+        <v>0.6619</v>
       </c>
       <c r="H7" t="n">
-        <v>-93.258</v>
+        <v>-93.2577</v>
       </c>
       <c r="I7" t="n">
         <v>-17.88</v>
       </c>
       <c r="J7" t="n">
-        <v>52.547</v>
+        <v>52.5466</v>
       </c>
       <c r="K7" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L7" t="n">
-        <v>3.234</v>
+        <v>3.2338</v>
       </c>
       <c r="M7" t="n">
-        <v>0.473</v>
+        <v>0.4726</v>
       </c>
       <c r="N7" t="n">
-        <v>-30.638</v>
+        <v>-30.6382</v>
       </c>
       <c r="O7" t="n">
         <v>5.94</v>
@@ -887,13 +887,13 @@
         <v>209.481</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R7" t="n">
-        <v>4.842</v>
+        <v>4.8417</v>
       </c>
       <c r="S7" t="n">
-        <v>0.176</v>
+        <v>0.1757</v>
       </c>
     </row>
     <row r="8">
@@ -909,37 +909,37 @@
         <v>17.88</v>
       </c>
       <c r="D8" t="n">
-        <v>52.547</v>
+        <v>52.5466</v>
       </c>
       <c r="E8" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F8" t="n">
-        <v>4.842</v>
+        <v>4.8417</v>
       </c>
       <c r="G8" t="n">
-        <v>0.662</v>
+        <v>0.6619</v>
       </c>
       <c r="H8" t="n">
-        <v>-93.258</v>
+        <v>-93.2577</v>
       </c>
       <c r="I8" t="n">
         <v>-17.88</v>
       </c>
       <c r="J8" t="n">
-        <v>52.547</v>
+        <v>52.5466</v>
       </c>
       <c r="K8" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L8" t="n">
-        <v>3.234</v>
+        <v>3.2338</v>
       </c>
       <c r="M8" t="n">
-        <v>0.473</v>
+        <v>0.4726</v>
       </c>
       <c r="N8" t="n">
-        <v>-30.638</v>
+        <v>-30.6382</v>
       </c>
       <c r="O8" t="n">
         <v>5.94</v>
@@ -948,13 +948,13 @@
         <v>209.481</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R8" t="n">
-        <v>4.842</v>
+        <v>4.8417</v>
       </c>
       <c r="S8" t="n">
-        <v>0.176</v>
+        <v>0.1757</v>
       </c>
     </row>
     <row r="9">
@@ -964,58 +964,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-92.718</v>
+        <v>-92.7182</v>
       </c>
       <c r="C9" t="n">
         <v>17.88</v>
       </c>
       <c r="D9" t="n">
-        <v>30.064</v>
+        <v>30.0643</v>
       </c>
       <c r="E9" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F9" t="n">
-        <v>4.836</v>
+        <v>4.8364</v>
       </c>
       <c r="G9" t="n">
-        <v>0.773</v>
+        <v>0.7728</v>
       </c>
       <c r="H9" t="n">
-        <v>-93.708</v>
+        <v>-93.7081</v>
       </c>
       <c r="I9" t="n">
         <v>-17.88</v>
       </c>
       <c r="J9" t="n">
-        <v>30.064</v>
+        <v>30.0643</v>
       </c>
       <c r="K9" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L9" t="n">
-        <v>3.237</v>
+        <v>3.2373</v>
       </c>
       <c r="M9" t="n">
-        <v>0.527</v>
+        <v>0.5268</v>
       </c>
       <c r="N9" t="n">
-        <v>-30.802</v>
+        <v>-30.8024</v>
       </c>
       <c r="O9" t="n">
         <v>5.94</v>
       </c>
       <c r="P9" t="n">
-        <v>119.854</v>
+        <v>119.8536</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R9" t="n">
-        <v>4.836</v>
+        <v>4.8364</v>
       </c>
       <c r="S9" t="n">
-        <v>0.47</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="10">
@@ -1025,58 +1025,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-93.371</v>
+        <v>-93.37090000000001</v>
       </c>
       <c r="C10" t="n">
         <v>17.88</v>
       </c>
       <c r="D10" t="n">
-        <v>29.612</v>
+        <v>29.6115</v>
       </c>
       <c r="E10" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F10" t="n">
-        <v>4.83</v>
+        <v>4.8295</v>
       </c>
       <c r="G10" t="n">
-        <v>0.769</v>
+        <v>0.7687</v>
       </c>
       <c r="H10" t="n">
-        <v>-93.89700000000001</v>
+        <v>-93.89660000000001</v>
       </c>
       <c r="I10" t="n">
         <v>-17.88</v>
       </c>
       <c r="J10" t="n">
-        <v>29.612</v>
+        <v>29.6115</v>
       </c>
       <c r="K10" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L10" t="n">
-        <v>3.239</v>
+        <v>3.2388</v>
       </c>
       <c r="M10" t="n">
-        <v>0.527</v>
+        <v>0.5269</v>
       </c>
       <c r="N10" t="n">
-        <v>-31.019</v>
+        <v>-31.0192</v>
       </c>
       <c r="O10" t="n">
         <v>5.94</v>
       </c>
       <c r="P10" t="n">
-        <v>118.049</v>
+        <v>118.0487</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R10" t="n">
-        <v>4.83</v>
+        <v>4.8295</v>
       </c>
       <c r="S10" t="n">
-        <v>0.481</v>
+        <v>0.4808</v>
       </c>
     </row>
     <row r="11">
@@ -1086,40 +1086,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-93.235</v>
+        <v>-93.2347</v>
       </c>
       <c r="C11" t="n">
         <v>17.88</v>
       </c>
       <c r="D11" t="n">
-        <v>29.61</v>
+        <v>29.6104</v>
       </c>
       <c r="E11" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="F11" t="n">
-        <v>4.831</v>
+        <v>4.8309</v>
       </c>
       <c r="G11" t="n">
         <v>0.77</v>
       </c>
       <c r="H11" t="n">
-        <v>-92.5</v>
+        <v>-92.5003</v>
       </c>
       <c r="I11" t="n">
         <v>-17.88</v>
       </c>
       <c r="J11" t="n">
-        <v>29.61</v>
+        <v>29.6104</v>
       </c>
       <c r="K11" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="L11" t="n">
-        <v>3.228</v>
+        <v>3.2277</v>
       </c>
       <c r="M11" t="n">
-        <v>0.533</v>
+        <v>0.5327</v>
       </c>
       <c r="N11" t="n">
         <v>-30.974</v>
@@ -1128,13 +1128,13 @@
         <v>5.94</v>
       </c>
       <c r="P11" t="n">
-        <v>118.044</v>
+        <v>118.0441</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.624</v>
+        <v>5.6244</v>
       </c>
       <c r="R11" t="n">
-        <v>4.831</v>
+        <v>4.8309</v>
       </c>
       <c r="S11" t="n">
         <v>0.481</v>
